--- a/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>##</t>
   </si>
@@ -62,6 +62,36 @@
   </si>
   <si>
     <t>是否有效</t>
+  </si>
+  <si>
+    <t>初级抽卡</t>
+  </si>
+  <si>
+    <t>中级抽卡</t>
+  </si>
+  <si>
+    <t>高级抽卡</t>
+  </si>
+  <si>
+    <t>初级装备宝箱</t>
+  </si>
+  <si>
+    <t>中级装备宝箱</t>
+  </si>
+  <si>
+    <t>高级装备宝箱</t>
+  </si>
+  <si>
+    <t>传奇装备宝箱</t>
+  </si>
+  <si>
+    <t>科技升级奖励1</t>
+  </si>
+  <si>
+    <t>科技升级奖励2</t>
+  </si>
+  <si>
+    <t>科技升级奖励3</t>
   </si>
 </sst>
 </file>
@@ -689,11 +719,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -702,6 +735,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -719,10 +758,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1043,21 +1085,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="11.6583333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.6666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.775" customWidth="1"/>
     <col min="4" max="5" width="15.9166666666667" customWidth="1"/>
     <col min="6" max="6" width="7.91666666666667" customWidth="1"/>
   </cols>
@@ -1066,41 +1108,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1108,117 +1151,263 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:6">
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>10000</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4">
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5">
         <v>1001</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="2:6">
-      <c r="B6" s="12"/>
-      <c r="D6" s="4">
+      <c r="B6" s="3"/>
+      <c r="D6" s="5">
         <v>1002</v>
       </c>
       <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="4">
+        <v>40</v>
+      </c>
+      <c r="F6" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="2:6">
-      <c r="B7" s="12">
+      <c r="B7" s="3">
         <v>10001</v>
       </c>
-      <c r="D7" s="4">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="5">
         <v>1001</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
+        <v>20</v>
+      </c>
+      <c r="F7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="2:6">
-      <c r="B8" s="12"/>
-      <c r="D8" s="4">
+      <c r="B8" s="3"/>
+      <c r="D8" s="5">
         <v>1002</v>
       </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="5">
+        <v>60</v>
+      </c>
+      <c r="F8" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="1" spans="2:6">
-      <c r="B9" s="12">
+      <c r="B9" s="3"/>
+      <c r="D9" s="5">
+        <v>1003</v>
+      </c>
+      <c r="E9" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="2:6">
+      <c r="B10" s="3">
         <v>10002</v>
       </c>
-      <c r="D9" s="4">
-        <v>1001</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="2:6">
-      <c r="B10" s="12"/>
-      <c r="D10" s="4">
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="5">
         <v>1002</v>
       </c>
       <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="2:8">
-      <c r="B11" s="12"/>
-      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="2:6">
+      <c r="B11" s="3"/>
+      <c r="D11" s="15">
         <v>1003</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" customFormat="1" spans="4:5">
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
+      <c r="E11" s="16">
+        <v>60</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="2:8">
+      <c r="B12" s="3"/>
+      <c r="D12" s="15">
+        <v>1004</v>
+      </c>
+      <c r="E12" s="16">
+        <v>20</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" customFormat="1" spans="2:6">
+      <c r="B13" s="3">
+        <v>10003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1005</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="3">
+        <v>10004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1006</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="3">
+        <v>10005</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="15">
+        <v>1007</v>
+      </c>
+      <c r="E15" s="15">
+        <v>1</v>
+      </c>
+      <c r="F15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="3">
+        <v>10006</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1008</v>
+      </c>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="3">
+        <v>10007</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1005</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="3">
+        <v>10008</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1005</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6">
+      <c r="D19" s="15">
+        <v>1006</v>
+      </c>
+      <c r="E19" s="15">
+        <v>1</v>
+      </c>
+      <c r="F19" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="3">
+        <v>10009</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="15">
+        <v>1006</v>
+      </c>
+      <c r="E20" s="15">
+        <v>1</v>
+      </c>
+      <c r="F20" s="15">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
@@ -1092,7 +1092,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1178,7 +1178,7 @@
         <v>1001</v>
       </c>
       <c r="E5" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F5" s="5">
         <v>1</v>
@@ -1190,7 +1190,7 @@
         <v>1002</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1248,7 +1248,7 @@
         <v>1002</v>
       </c>
       <c r="E10">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F10" s="5">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>1003</v>
       </c>
       <c r="E11" s="16">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F11" s="16">
         <v>1</v>
@@ -1272,7 +1272,7 @@
         <v>1004</v>
       </c>
       <c r="E12" s="16">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>

--- a/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>##</t>
   </si>
@@ -92,6 +92,21 @@
   </si>
   <si>
     <t>科技升级奖励3</t>
+  </si>
+  <si>
+    <t>初级装备选择宝箱</t>
+  </si>
+  <si>
+    <t>中级装备选择宝箱</t>
+  </si>
+  <si>
+    <t>高级装备选择宝箱</t>
+  </si>
+  <si>
+    <t>传奇装备选择宝箱</t>
+  </si>
+  <si>
+    <t>神器宝箱</t>
   </si>
 </sst>
 </file>
@@ -1085,14 +1100,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1409,6 +1424,157 @@
         <v>1</v>
       </c>
     </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="3">
+        <v>10010</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1005</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6">
+      <c r="D22" s="15">
+        <v>1006</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="3">
+        <v>10011</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1005</v>
+      </c>
+      <c r="E23">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6">
+      <c r="D24" s="15">
+        <v>1006</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6">
+      <c r="D25" s="15">
+        <v>1007</v>
+      </c>
+      <c r="E25">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="3">
+        <v>10012</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="15">
+        <v>1006</v>
+      </c>
+      <c r="E26">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6">
+      <c r="D27" s="15">
+        <v>1007</v>
+      </c>
+      <c r="E27">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6">
+      <c r="D28" s="15">
+        <v>1008</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="3">
+        <v>10013</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="15">
+        <v>1007</v>
+      </c>
+      <c r="E29">
+        <v>50</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6">
+      <c r="D30" s="15">
+        <v>1008</v>
+      </c>
+      <c r="E30">
+        <v>50</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="3">
+        <v>10014</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1012</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D1:F1"/>

--- a/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PoolGroupConfig.xlsx
@@ -734,7 +734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -742,6 +742,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -757,9 +760,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -770,15 +775,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1103,19 +1111,20 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D13" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22:F31"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="11.6666666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14.775" customWidth="1"/>
-    <col min="4" max="5" width="15.9166666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.7416666666667" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.8333333333333" style="4" customWidth="1"/>
     <col min="6" max="6" width="7.91666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1123,42 +1132,42 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1166,27 +1175,27 @@
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="1" spans="2:6">
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>10000</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="5">
@@ -1195,7 +1204,7 @@
       <c r="E5" s="5">
         <v>80</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1204,10 +1213,10 @@
       <c r="D6" s="5">
         <v>1002</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>20</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1221,10 +1230,10 @@
       <c r="D7" s="5">
         <v>1001</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>20</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1236,7 +1245,7 @@
       <c r="E8" s="5">
         <v>60</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1248,7 +1257,7 @@
       <c r="E9" s="5">
         <v>20</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1262,37 +1271,37 @@
       <c r="D10" s="5">
         <v>1002</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>50</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="2:6">
       <c r="B11" s="3"/>
-      <c r="D11" s="15">
+      <c r="D11" s="3">
         <v>1003</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="5">
         <v>20</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="2:8">
       <c r="B12" s="3"/>
-      <c r="D12" s="15">
+      <c r="D12" s="3">
         <v>1004</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="5">
         <v>10</v>
       </c>
-      <c r="F12" s="16">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="F12" s="17">
+        <v>1</v>
+      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" customFormat="1" spans="2:6">
       <c r="B13" s="3">
@@ -1301,13 +1310,13 @@
       <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="11">
         <v>1005</v>
       </c>
-      <c r="E13" s="17">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1318,13 +1327,13 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="3">
         <v>1006</v>
       </c>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="15">
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1335,13 +1344,13 @@
       <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="3">
         <v>1007</v>
       </c>
-      <c r="E15" s="15">
-        <v>1</v>
-      </c>
-      <c r="F15" s="15">
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1352,13 +1361,13 @@
       <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="3">
         <v>1008</v>
       </c>
-      <c r="E16" s="15">
-        <v>1</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1369,13 +1378,13 @@
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="11">
         <v>1005</v>
       </c>
-      <c r="E17" s="17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1386,24 +1395,24 @@
       <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="11">
         <v>1005</v>
       </c>
-      <c r="E18" s="17">
-        <v>1</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="E18" s="11">
+        <v>1</v>
+      </c>
+      <c r="F18" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="4:6">
-      <c r="D19" s="15">
+      <c r="D19" s="3">
         <v>1006</v>
       </c>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="15">
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1414,13 +1423,13 @@
       <c r="C20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="3">
         <v>1006</v>
       </c>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
+      <c r="F20" s="19">
         <v>1</v>
       </c>
     </row>
@@ -1431,10 +1440,10 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="11">
         <v>1005</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>80</v>
       </c>
       <c r="F21">
@@ -1442,10 +1451,10 @@
       </c>
     </row>
     <row r="22" spans="4:6">
-      <c r="D22" s="15">
+      <c r="D22" s="3">
         <v>1006</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>20</v>
       </c>
       <c r="F22">
@@ -1459,10 +1468,10 @@
       <c r="C23" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="11">
         <v>1005</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>20</v>
       </c>
       <c r="F23">
@@ -1470,10 +1479,10 @@
       </c>
     </row>
     <row r="24" spans="4:6">
-      <c r="D24" s="15">
+      <c r="D24" s="3">
         <v>1006</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>60</v>
       </c>
       <c r="F24">
@@ -1481,10 +1490,10 @@
       </c>
     </row>
     <row r="25" spans="4:6">
-      <c r="D25" s="15">
+      <c r="D25" s="3">
         <v>1007</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>20</v>
       </c>
       <c r="F25">
@@ -1498,10 +1507,10 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D26" s="3">
         <v>1006</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>30</v>
       </c>
       <c r="F26">
@@ -1509,10 +1518,10 @@
       </c>
     </row>
     <row r="27" spans="4:6">
-      <c r="D27" s="15">
+      <c r="D27" s="3">
         <v>1007</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>60</v>
       </c>
       <c r="F27">
@@ -1520,10 +1529,10 @@
       </c>
     </row>
     <row r="28" spans="4:6">
-      <c r="D28" s="15">
+      <c r="D28" s="3">
         <v>1008</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>10</v>
       </c>
       <c r="F28">
@@ -1537,10 +1546,10 @@
       <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="D29" s="15">
+      <c r="D29" s="3">
         <v>1007</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>50</v>
       </c>
       <c r="F29">
@@ -1548,10 +1557,10 @@
       </c>
     </row>
     <row r="30" spans="4:6">
-      <c r="D30" s="15">
+      <c r="D30" s="3">
         <v>1008</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <v>50</v>
       </c>
       <c r="F30">
@@ -1568,7 +1577,7 @@
       <c r="D31" s="3">
         <v>1012</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <v>1</v>
       </c>
       <c r="F31">
